--- a/biology/Botanique/Café_d'orge/Café_d'orge.xlsx
+++ b/biology/Botanique/Café_d'orge/Café_d'orge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_d%27orge</t>
+          <t>Café_d'orge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café d'orge est une boisson populaire en Italie, où elle est appelée caffè d'orzo (prononcé : [kafˈfɛ ˈdɔrdzo]). Cette infusion de grains d’orge torréfiés et moulus ne contient par conséquent pas de caféine. Très désaltérante, au goût très léger de pain lorsqu'elle est peu infusée, cette boisson peut aller jusqu'au goût prononcé de café.
-On la consommait en France durant les deux guerres mondiales où elle était un ersatz (rappelant le thé ou le café)[1],[2],[3].
+On la consommait en France durant les deux guerres mondiales où elle était un ersatz (rappelant le thé ou le café).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_d%27orge</t>
+          <t>Café_d'orge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Yvonne Guinard, « Vingt-Deux Mois dans les Lignes Allemandes », Lectures pour tous, vol. 19, no 14,‎ 1er novembre 1916 (lire en ligne) :« Le matin, on recevait une infusion d'orge et d'avoine grillées ; à 10 heures, une tasse de mauvais cacao à l'eau et sans sucre; à 4 heures, une nouvelle infusion d'orge et d'avoine grillées. »
